--- a/data/trans_dic/P59A-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P59A-Provincia-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.09223501546633792</v>
+        <v>0.09447320924752116</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1400995293065322</v>
+        <v>0.1445526494575343</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1521781530220472</v>
+        <v>0.1488963571249276</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1186568500641977</v>
+        <v>0.1171667310988807</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.06072433539075554</v>
+        <v>0.05962626896104322</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1519632411640593</v>
+        <v>0.1516690461907138</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1958628027806918</v>
+        <v>0.1972576113355965</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1222411014692304</v>
+        <v>0.1258230453623115</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.09418886382220405</v>
+        <v>0.08933928908801997</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1719126548763735</v>
+        <v>0.1753687485131293</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1914683335831734</v>
+        <v>0.1947945490348774</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1379757149008192</v>
+        <v>0.1344467346296244</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2327560146402159</v>
+        <v>0.2294015195714178</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2932435779271558</v>
+        <v>0.2972829479729354</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3135589337571013</v>
+        <v>0.3158487111985744</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2529574128393244</v>
+        <v>0.2576290751267348</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.184760481702936</v>
+        <v>0.1807333079626583</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3225314084943838</v>
+        <v>0.3256764322561263</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3488146410632232</v>
+        <v>0.3437844987748601</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2411089342853704</v>
+        <v>0.2413099765863884</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1844631589129007</v>
+        <v>0.1819346183692747</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2807947790010087</v>
+        <v>0.2824780622556146</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3041782645314085</v>
+        <v>0.3022363528135424</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2235289386200119</v>
+        <v>0.2279808182851784</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.09552568208940428</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.1922274396000535</v>
+        <v>0.1922274396000534</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07176564982717985</v>
+        <v>0.06954077262243799</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1049334371938593</v>
+        <v>0.1077402881842692</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.07047868424816221</v>
+        <v>0.07094572341004245</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1330836483052091</v>
+        <v>0.1353283431701439</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.06115802643654397</v>
+        <v>0.05890792160870067</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.09345449762653507</v>
+        <v>0.09053263588961528</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0479478201716825</v>
+        <v>0.04874634578605938</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1476858676426003</v>
+        <v>0.1422936082310648</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0744492666128934</v>
+        <v>0.07780437492524762</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1115947773578594</v>
+        <v>0.112454266491056</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.06956456605447835</v>
+        <v>0.06825381115190716</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1546651396340745</v>
+        <v>0.1546633226407582</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1788294985737862</v>
+        <v>0.1749989426700062</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.213065490795761</v>
+        <v>0.2146726634347227</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1628755683534917</v>
+        <v>0.1619783141258951</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2622956695545698</v>
+        <v>0.2670793008927506</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1526124422895785</v>
+        <v>0.1514603948679459</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1917017179098106</v>
+        <v>0.195280577107157</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1249719894536744</v>
+        <v>0.1287717953050755</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2493005151943179</v>
+        <v>0.2445175134843089</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1424223650934731</v>
+        <v>0.1442916569903338</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1818814109834463</v>
+        <v>0.1831581014687255</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.128673981329678</v>
+        <v>0.1286235176145668</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2355733382710544</v>
+        <v>0.2395390806583761</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09633174492171745</v>
+        <v>0.09698605276695922</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06679768884575422</v>
+        <v>0.06630935493640343</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.09591865057930804</v>
+        <v>0.09428064466123871</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.08699260676127955</v>
+        <v>0.08774621813730475</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.05007120879232328</v>
+        <v>0.05172804570594693</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04713414308294769</v>
+        <v>0.04712985271015336</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05266543087440442</v>
+        <v>0.05258046415312932</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.09521424912199344</v>
+        <v>0.09233216989083418</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.08460273841904214</v>
+        <v>0.08541798629677319</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.06860210386092611</v>
+        <v>0.06715640989385953</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.08575386084705229</v>
+        <v>0.07916742067677354</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1017047560906634</v>
+        <v>0.1004127206510712</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2351161126350381</v>
+        <v>0.2412621502013166</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1727066365431167</v>
+        <v>0.1687182250598388</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2283725892486836</v>
+        <v>0.2197270462684543</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.190316189021806</v>
+        <v>0.194941473314887</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1499934384977155</v>
+        <v>0.1625029364473832</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1704493621957037</v>
+        <v>0.1615493892039635</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1434844764558927</v>
+        <v>0.1510157111758176</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1856781155617685</v>
+        <v>0.1780648685365969</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1678547430796788</v>
+        <v>0.1699752439780306</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1486330834710556</v>
+        <v>0.1469397926669154</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.161152493915757</v>
+        <v>0.1600506098454703</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.173360473558078</v>
+        <v>0.1687972352654126</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.09979604257999029</v>
+        <v>0.09843605508058545</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1537240850308447</v>
+        <v>0.1510345278149102</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2789755759675638</v>
+        <v>0.2782444532476197</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1723301349878497</v>
+        <v>0.1678916270859616</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.08760756218052045</v>
+        <v>0.08718496450094478</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1176682607708835</v>
+        <v>0.1198183422758135</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2018049977885957</v>
+        <v>0.2018026763843588</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1253094401307939</v>
+        <v>0.1264556421608477</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1076657216074596</v>
+        <v>0.1076161804940276</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1539613641483995</v>
+        <v>0.1468930027983588</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.256572278648017</v>
+        <v>0.2577671508631867</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1675324189259128</v>
+        <v>0.1674107189369954</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2269396673190321</v>
+        <v>0.2192896818832196</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2932206338051892</v>
+        <v>0.2994793545042444</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4364093084291384</v>
+        <v>0.4347391308452494</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3554002184503436</v>
+        <v>0.3581534341598087</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1937951456682866</v>
+        <v>0.1924648146690654</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2501926608327983</v>
+        <v>0.2482544696838699</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3382617252246129</v>
+        <v>0.3383687076996275</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2345891414247744</v>
+        <v>0.2381993011863662</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1864968520247389</v>
+        <v>0.185658246340508</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2529269799497815</v>
+        <v>0.2496937465953973</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3600424155482728</v>
+        <v>0.3641822101553132</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2670843800277354</v>
+        <v>0.2673682023370534</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.1048998267392881</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.08672554773776547</v>
+        <v>0.0867255477377655</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.1478747628333138</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.09860902074105315</v>
+        <v>0.09776001530136254</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05335432390304061</v>
+        <v>0.05707684545702128</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05065219041738912</v>
+        <v>0.0515993188337402</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.04180100620987532</v>
+        <v>0.03931619324811621</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.08140356137427358</v>
+        <v>0.07751463498985692</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.09971310818920842</v>
+        <v>0.09197119947683058</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.0276040099603688</v>
+        <v>0.02711504676527441</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0696155736256812</v>
+        <v>0.07099446165692272</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1109898297500988</v>
+        <v>0.1067763360304304</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.09143929454306916</v>
+        <v>0.09177290258031548</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.05297454463032161</v>
+        <v>0.05193828683298384</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.06634460251566401</v>
+        <v>0.06810800650257604</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.252078620476195</v>
+        <v>0.2433858716011387</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.215656120440624</v>
+        <v>0.2216985481241958</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1963462879789097</v>
+        <v>0.1986110675984956</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1612947913115133</v>
+        <v>0.1548008282123353</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2383105023957251</v>
+        <v>0.2444872827484834</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2548416543145713</v>
+        <v>0.2453694793118051</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1625987123817804</v>
+        <v>0.1617191981061728</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1740363020318732</v>
+        <v>0.1767361928557465</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2206258692815209</v>
+        <v>0.2261398087673795</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2005963584846317</v>
+        <v>0.2056221509974562</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1508301363099083</v>
+        <v>0.1497249084702645</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.143383141500804</v>
+        <v>0.1407727367232986</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1046308101156015</v>
+        <v>0.1005293313381928</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05512858476239132</v>
+        <v>0.05758455365230807</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02851652457242774</v>
+        <v>0.03571926759320196</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.08008342460487981</v>
+        <v>0.07778139535257135</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.07807634349226737</v>
+        <v>0.07623043848162274</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.02077876279571423</v>
+        <v>0.02003876686304088</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.0248290972793344</v>
+        <v>0.02502988574931088</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.08955090584927215</v>
+        <v>0.08724684107889562</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1078226057596886</v>
+        <v>0.1067599489446003</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.0497175850597964</v>
+        <v>0.04805379743922378</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.03967179084385462</v>
+        <v>0.03947010805471498</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.0950675493819529</v>
+        <v>0.09721205475068143</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2545155058005242</v>
+        <v>0.2489631334792012</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2090193206813647</v>
+        <v>0.2132153680976391</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1351627318277891</v>
+        <v>0.137526687356469</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1863928002442013</v>
+        <v>0.1884191091283049</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2066167831597529</v>
+        <v>0.2017205945549752</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.113485601857321</v>
+        <v>0.1218771018097468</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.116884245496632</v>
+        <v>0.1166913676075868</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1959938519135153</v>
+        <v>0.1960897803358643</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2080545918691474</v>
+        <v>0.2092426145841844</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1376099422234646</v>
+        <v>0.1368119103118649</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.103435502087105</v>
+        <v>0.1020554900528613</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1702056354865855</v>
+        <v>0.168789207835698</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.09847346743635954</v>
+        <v>0.1008950794128911</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1258151083106327</v>
+        <v>0.1237807364471731</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1430727200005591</v>
+        <v>0.1408059965712247</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1216710443159953</v>
+        <v>0.1256971917776004</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.056937915014805</v>
+        <v>0.05451512227856599</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1367115404152746</v>
+        <v>0.1372348574676278</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.09454890774921869</v>
+        <v>0.0943841131089745</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1366243661530377</v>
+        <v>0.1375007505321618</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.08762354828636533</v>
+        <v>0.08648658819363191</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1458042727841329</v>
+        <v>0.1415696714367393</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1262593884604991</v>
+        <v>0.123412138190825</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1399764064478778</v>
+        <v>0.1406036913301286</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1979414075626356</v>
+        <v>0.194687684425239</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2197369046965126</v>
+        <v>0.2248539852915634</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2302234244513487</v>
+        <v>0.2280651969527578</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2218770668670805</v>
+        <v>0.2190402798668161</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1315700261060013</v>
+        <v>0.1306910328744795</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.228532183303201</v>
+        <v>0.2340678367729537</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1623711498747972</v>
+        <v>0.162487838432641</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2091215195604962</v>
+        <v>0.2093461263217567</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1485155714026982</v>
+        <v>0.1442628928126408</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2123402260497046</v>
+        <v>0.209103409115265</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1826340950037778</v>
+        <v>0.17685535446712</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1998090249943064</v>
+        <v>0.2044057552381766</v>
       </c>
     </row>
     <row r="25">
@@ -1649,7 +1649,7 @@
         <v>0.1485622162047412</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.08277799628408432</v>
+        <v>0.08277799628408433</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.07029307027630928</v>
+        <v>0.07428677418875715</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.07990717432334925</v>
+        <v>0.08216920606906722</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1204201884626118</v>
+        <v>0.1208512900648333</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.09386580356781031</v>
+        <v>0.08861728167722387</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.04435804213247944</v>
+        <v>0.0484095878889973</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.07803434633480098</v>
+        <v>0.07740412780985929</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1058434559352392</v>
+        <v>0.1065454543782286</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.02698149794187036</v>
+        <v>0.0266041142008872</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.06815851900181824</v>
+        <v>0.06936350472348882</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.09066879116682783</v>
+        <v>0.08884416882043365</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1252521504326911</v>
+        <v>0.1229375123131692</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.06175456644891451</v>
+        <v>0.06171929521555689</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1487105336013898</v>
+        <v>0.1483638281667858</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1661198310072451</v>
+        <v>0.1609747861416829</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2051073303630746</v>
+        <v>0.2009822494875</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1763540282075257</v>
+        <v>0.174790179627456</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1133177713671703</v>
+        <v>0.1135473533387661</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1522623637094217</v>
+        <v>0.149199786802663</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1804259112087103</v>
+        <v>0.1807377782353829</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.06704412040950244</v>
+        <v>0.06750847494199813</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1156142081629265</v>
+        <v>0.117294361648329</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.144214450546759</v>
+        <v>0.1434123195853213</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1784219741336398</v>
+        <v>0.1785781430369093</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1081239085156891</v>
+        <v>0.1079196654135218</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1194146847497842</v>
+        <v>0.1192883250571037</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1340211504308723</v>
+        <v>0.1348668559932951</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1539609280528983</v>
+        <v>0.1556537174161889</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1418574240684282</v>
+        <v>0.143078393107544</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.08587015906277999</v>
+        <v>0.0872650148974607</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.1234153508396352</v>
+        <v>0.1234615688353393</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.1253288917674998</v>
+        <v>0.1236741914364244</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1216190966698882</v>
+        <v>0.1229857601210919</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.1069383259986586</v>
+        <v>0.1060700874764048</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.1342196862495614</v>
+        <v>0.133295024894924</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.1440621099657039</v>
+        <v>0.1440496062482402</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.1380100807399491</v>
+        <v>0.1373586234160603</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1576245902527514</v>
+        <v>0.1593876512377565</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1742724592027449</v>
+        <v>0.1755975000669664</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1959440889974912</v>
+        <v>0.1976241441750715</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1857296586692203</v>
+        <v>0.1862788582399737</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.1194734612322002</v>
+        <v>0.122054940217543</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1616082821397263</v>
+        <v>0.1632137723156067</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.158465056543249</v>
+        <v>0.15856219000454</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.153926723652598</v>
+        <v>0.1547100820222892</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.131469001982865</v>
+        <v>0.1329254811615362</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.1612325150463496</v>
+        <v>0.1619901552269761</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.1714893317782281</v>
+        <v>0.171877021074582</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.165514468450771</v>
+        <v>0.1634603102612082</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>10602</v>
+        <v>10859</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>18187</v>
+        <v>18765</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>19065</v>
+        <v>18654</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>18039</v>
+        <v>17812</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>7291</v>
+        <v>7159</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>17049</v>
+        <v>17016</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>27637</v>
+        <v>27834</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>18001</v>
+        <v>18528</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>22135</v>
+        <v>20995</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>41604</v>
+        <v>42440</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>51004</v>
+        <v>51891</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>41294</v>
+        <v>40237</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>26755</v>
+        <v>26369</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>38067</v>
+        <v>38591</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>39283</v>
+        <v>39570</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>38456</v>
+        <v>39166</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>22182</v>
+        <v>21699</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>36185</v>
+        <v>36538</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>49220</v>
+        <v>48510</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>35505</v>
+        <v>35534</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>43350</v>
+        <v>42756</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>67954</v>
+        <v>68362</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>81029</v>
+        <v>80512</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>66898</v>
+        <v>68230</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>13490</v>
+        <v>13072</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>20147</v>
+        <v>20686</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>14327</v>
+        <v>14422</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>36755</v>
+        <v>37375</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>12037</v>
+        <v>11594</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>18486</v>
+        <v>17908</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>9869</v>
+        <v>10034</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>39168</v>
+        <v>37738</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>28648</v>
+        <v>29939</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>43501</v>
+        <v>43836</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>28459</v>
+        <v>27923</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>83735</v>
+        <v>83734</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>33615</v>
+        <v>32895</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>40909</v>
+        <v>41217</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>33109</v>
+        <v>32926</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>72441</v>
+        <v>73762</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>30037</v>
+        <v>29810</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>37921</v>
+        <v>38629</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>25723</v>
+        <v>26505</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>66118</v>
+        <v>64849</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>54803</v>
+        <v>55523</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>70899</v>
+        <v>71397</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>52642</v>
+        <v>52621</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>127538</v>
+        <v>129685</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>11177</v>
+        <v>11253</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>9238</v>
+        <v>9171</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>10910</v>
+        <v>10723</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>14150</v>
+        <v>14273</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>6926</v>
+        <v>7155</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>6612</v>
+        <v>6611</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>7844</v>
+        <v>7831</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>18250</v>
+        <v>17698</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>21518</v>
+        <v>21725</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>19111</v>
+        <v>18708</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>22525</v>
+        <v>20795</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>36038</v>
+        <v>35580</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>27279</v>
+        <v>27992</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>23886</v>
+        <v>23334</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>25975</v>
+        <v>24991</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>30957</v>
+        <v>31709</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>20747</v>
+        <v>22477</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>23910</v>
+        <v>22662</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>21370</v>
+        <v>22491</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>35590</v>
+        <v>34131</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>42692</v>
+        <v>43231</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>41406</v>
+        <v>40934</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>42330</v>
+        <v>42041</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>61428</v>
+        <v>59811</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>14196</v>
+        <v>14003</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>23776</v>
+        <v>23360</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>46221</v>
+        <v>46100</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>35861</v>
+        <v>34937</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>15043</v>
+        <v>14971</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>17725</v>
+        <v>18049</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>35829</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>28261</v>
+        <v>28520</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>33803</v>
+        <v>33788</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>47005</v>
+        <v>44847</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>88062</v>
+        <v>88472</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>72646</v>
+        <v>72594</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>32283</v>
+        <v>31194</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>45352</v>
+        <v>46320</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>72305</v>
+        <v>72028</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>73956</v>
+        <v>74529</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>33277</v>
+        <v>33049</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>37688</v>
+        <v>37396</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>60056</v>
+        <v>60075</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>52908</v>
+        <v>53722</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>58554</v>
+        <v>58290</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>77219</v>
+        <v>76232</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>123576</v>
+        <v>124997</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>115815</v>
+        <v>115938</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>9361</v>
+        <v>9281</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>4522</v>
+        <v>4838</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>4330</v>
+        <v>4411</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>4160</v>
+        <v>3913</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>6650</v>
+        <v>6333</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>9155</v>
+        <v>8444</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1938</v>
+        <v>1903</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>6896</v>
+        <v>7033</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>19604</v>
+        <v>18860</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>16146</v>
+        <v>16204</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>8247</v>
+        <v>8086</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>13175</v>
+        <v>13525</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>23931</v>
+        <v>23106</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>18278</v>
+        <v>18790</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>16785</v>
+        <v>16978</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>16053</v>
+        <v>15406</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>19469</v>
+        <v>19974</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>23399</v>
+        <v>22529</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>11414</v>
+        <v>11352</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>17240</v>
+        <v>17508</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>38969</v>
+        <v>39943</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>35419</v>
+        <v>36307</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>23481</v>
+        <v>23309</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>28474</v>
+        <v>27955</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>11558</v>
+        <v>11105</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>5726</v>
+        <v>5982</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>2981</v>
+        <v>3734</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>11099</v>
+        <v>10780</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>9269</v>
+        <v>9050</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>2187</v>
+        <v>2109</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>2741</v>
+        <v>2763</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>12300</v>
+        <v>11983</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>24712</v>
+        <v>24468</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>10397</v>
+        <v>10049</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>8526</v>
+        <v>8482</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>26233</v>
+        <v>26825</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>28116</v>
+        <v>27503</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>21712</v>
+        <v>22148</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>14129</v>
+        <v>14376</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>25832</v>
+        <v>26113</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>24530</v>
+        <v>23948</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>11945</v>
+        <v>12828</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>12901</v>
+        <v>12880</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>26920</v>
+        <v>26933</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>47684</v>
+        <v>47957</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>28778</v>
+        <v>28611</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>22229</v>
+        <v>21932</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>46967</v>
+        <v>46576</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>21719</v>
+        <v>22254</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>33657</v>
+        <v>33113</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>45836</v>
+        <v>45110</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>42811</v>
+        <v>44228</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>13978</v>
+        <v>13383</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>39428</v>
+        <v>39579</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>35883</v>
+        <v>35820</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>53313</v>
+        <v>53655</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>40837</v>
+        <v>40307</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>81056</v>
+        <v>78701</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>88367</v>
+        <v>86374</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>103874</v>
+        <v>104339</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>43658</v>
+        <v>42941</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>58783</v>
+        <v>60152</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>73757</v>
+        <v>73066</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>78070</v>
+        <v>77072</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>32300</v>
+        <v>32084</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>65910</v>
+        <v>67506</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>61622</v>
+        <v>61666</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>81603</v>
+        <v>81690</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>69216</v>
+        <v>67234</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>118044</v>
+        <v>116245</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>127823</v>
+        <v>123779</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>148274</v>
+        <v>151685</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>21165</v>
+        <v>22367</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>24964</v>
+        <v>25671</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>41374</v>
+        <v>41522</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>33801</v>
+        <v>31911</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>13726</v>
+        <v>14980</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>26328</v>
+        <v>26116</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>38063</v>
+        <v>38315</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>11196</v>
+        <v>11039</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>41613</v>
+        <v>42349</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>58917</v>
+        <v>57731</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>88076</v>
+        <v>86449</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>47862</v>
+        <v>47834</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>44776</v>
+        <v>44671</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>51898</v>
+        <v>50290</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>70470</v>
+        <v>69053</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>63504</v>
+        <v>62941</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>35065</v>
+        <v>35136</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>51372</v>
+        <v>50339</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>64884</v>
+        <v>64996</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>27819</v>
+        <v>28012</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>70586</v>
+        <v>71612</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>93711</v>
+        <v>93190</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>125465</v>
+        <v>125575</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>83799</v>
+        <v>83641</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>153836</v>
+        <v>153673</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>185397</v>
+        <v>186567</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>225082</v>
+        <v>227557</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>248112</v>
+        <v>250248</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>118695</v>
+        <v>120623</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>175717</v>
+        <v>175782</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>199663</v>
+        <v>197027</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>227579</v>
+        <v>230137</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>285580</v>
+        <v>283262</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>376771</v>
+        <v>374176</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>440118</v>
+        <v>440080</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>499634</v>
+        <v>497276</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>203060</v>
+        <v>205331</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>241078</v>
+        <v>242911</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>286459</v>
+        <v>288915</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>324846</v>
+        <v>325807</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>165144</v>
+        <v>168712</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>230095</v>
+        <v>232381</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>252453</v>
+        <v>252608</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>288035</v>
+        <v>289501</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>351090</v>
+        <v>354979</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>452600</v>
+        <v>454726</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>523910</v>
+        <v>525094</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>599208</v>
+        <v>591771</v>
       </c>
     </row>
     <row r="40">
